--- a/va_facility_data_2025-02-20/Bath VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Bath%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bath VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Bath%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc198afdb1d504e16bcd217a5a1af7c2f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9df7c77a17644a74a6e09601a7d7ab3d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7d677504919e405e9ecae19d30b4b44e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R205a67028ef748c4841ee70272b94524"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R805a04f495cd4c6288faf2f92532b339"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2644e297220a4644ae3b1c3d20e8b04e"/>
   </x:sheets>
 </x:workbook>
 </file>
